--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,7 +40,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
   </si>
   <si>
     <t>war</t>
@@ -49,36 +52,27 @@
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,85 +88,88 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -599,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8333333333333334</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -649,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8157894736842105</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,16 +667,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -717,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7941176470588235</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
         <v>27</v>
@@ -767,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8484848484848485</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7842465753424658</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,37 +846,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,37 +896,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5686274509803921</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -941,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -949,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.559322033898305</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.7734375</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5174418604651163</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5132275132275133</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C12">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4630872483221476</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7875</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4266666666666667</v>
+        <v>0.2341269841269841</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1167,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0.1367292225201072</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.73125</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,128 +1246,80 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2380952380952381</v>
+        <v>0.01127940702545923</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>192</v>
+        <v>3068</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.75</v>
-      </c>
-      <c r="L16">
-        <v>36</v>
-      </c>
-      <c r="M16">
-        <v>36</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1501340482573726</v>
-      </c>
-      <c r="C17">
-        <v>56</v>
-      </c>
-      <c r="D17">
-        <v>56</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>317</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L17">
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>35</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.01128304319793682</v>
-      </c>
-      <c r="C18">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18">
-        <v>0.12</v>
-      </c>
-      <c r="F18">
-        <v>0.88</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3067</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="K18">
         <v>0.7209302325581395</v>
@@ -1394,316 +1343,342 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L19">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>44</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.6875</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K19">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L19">
+      <c r="K21">
+        <v>0.638235294117647</v>
+      </c>
+      <c r="L21">
+        <v>217</v>
+      </c>
+      <c r="M21">
+        <v>217</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.625</v>
+      </c>
+      <c r="L22">
         <v>25</v>
       </c>
-      <c r="M19">
+      <c r="M22">
         <v>25</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.5941422594142259</v>
+      </c>
+      <c r="L23">
+        <v>142</v>
+      </c>
+      <c r="M23">
+        <v>142</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.5864406779661017</v>
+      </c>
+      <c r="L24">
+        <v>173</v>
+      </c>
+      <c r="M24">
+        <v>173</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L25">
+        <v>54</v>
+      </c>
+      <c r="M25">
+        <v>54</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L26">
+        <v>37</v>
+      </c>
+      <c r="M26">
+        <v>37</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L28">
+        <v>36</v>
+      </c>
+      <c r="M28">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L29">
         <v>42</v>
       </c>
-      <c r="K20">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L20">
-        <v>43</v>
-      </c>
-      <c r="M20">
-        <v>43</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.625</v>
-      </c>
-      <c r="L21">
+      <c r="M29">
+        <v>42</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L30">
         <v>25</v>
       </c>
-      <c r="M21">
+      <c r="M30">
         <v>25</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.6205882352941177</v>
-      </c>
-      <c r="L22">
-        <v>211</v>
-      </c>
-      <c r="M22">
-        <v>211</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.6</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.5782312925170068</v>
-      </c>
-      <c r="L24">
-        <v>170</v>
-      </c>
-      <c r="M24">
-        <v>171</v>
-      </c>
-      <c r="N24">
-        <v>0.99</v>
-      </c>
-      <c r="O24">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="L25">
-        <v>37</v>
-      </c>
-      <c r="M25">
-        <v>37</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>48</v>
       </c>
-      <c r="K26">
-        <v>0.5690376569037657</v>
-      </c>
-      <c r="L26">
-        <v>136</v>
-      </c>
-      <c r="M26">
-        <v>136</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.5531914893617021</v>
-      </c>
-      <c r="L27">
-        <v>52</v>
-      </c>
-      <c r="M27">
-        <v>52</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28">
-        <v>0.550561797752809</v>
-      </c>
-      <c r="L28">
-        <v>49</v>
-      </c>
-      <c r="M28">
-        <v>49</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K29">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L29">
-        <v>38</v>
-      </c>
-      <c r="M29">
-        <v>38</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30">
-        <v>0.3561643835616438</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>47</v>
+      <c r="K31">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
